--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.2475</v>
+        <v>-11.03379999999999</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.34680000000002</v>
+        <v>-21.22700000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.717</v>
+        <v>-13.98470000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.49409999999999</v>
+        <v>-20.45289999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.30339999999999</v>
+        <v>-20.35459999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0691</v>
+        <v>-11.9287</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.21630000000001</v>
+        <v>-21.2591</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.39520000000002</v>
+        <v>-21.24720000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.49700000000004</v>
+        <v>-22.50840000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
